--- a/ExcelRAddIn/Tests/Data Visualization.xlsx
+++ b/ExcelRAddIn/Tests/Data Visualization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\ExcelRAddIn\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\Office365 AddIns\ExcelRAddIn\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA6A23-B418-4B7B-A138-A7A945CAC43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D98AC8-22C8-438A-885C-AE279F09C2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{103A4457-AAC3-437C-9223-33DC1020895A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{103A4457-AAC3-437C-9223-33DC1020895A}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
@@ -333,9 +333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -373,7 +373,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -479,7 +479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -621,7 +621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -670,7 +670,7 @@
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,18 +682,18 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="str" cm="1">
-        <f t="array" ref="D2">TRANSPOSE(_xll.RScript.Evaluate(B2, "true"))</f>
-        <v>OK</v>
+      <c r="D2" t="e" cm="1">
+        <f t="array" ref="D2">_xll.RScript.Evaluate(B2,TRUE)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="str" cm="1">
-        <f t="array" ref="D3">TRANSPOSE(_xll.RScript.Evaluate(B3,"true"))</f>
-        <v>OK</v>
+      <c r="D3" t="e" cm="1">
+        <f t="array" ref="D3">TRANSPOSE(_xll.RScript.Evaluate(B3,TRUE))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF7F787-6BE0-40A7-AA7E-799990690E41}">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1984,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3A1991-1524-4EB5-BD98-B978A9A1B11E}">
-  <dimension ref="B2:K23"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1996,21 +1996,21 @@
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="str" cm="1">
+      <c r="C3" t="e" cm="1">
         <f t="array" ref="C3">_xll.RScript.Evaluate(B3)</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>splitIndex</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>training_data</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -2037,12 +2037,12 @@
         <v>testing_data</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -2051,12 +2051,17 @@
         <v>model</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="L11" t="str" cm="1">
+        <f t="array" ref="L11">_xll.RScript.Evaluate(C12)</f>
+        <v xml:space="preserve">Exception: Error: object 'predictions' not found
+</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -2065,12 +2070,12 @@
         <v>predictions</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>17</v>
       </c>
